--- a/biology/Zoologie/Calumma_tjiasmantoi/Calumma_tjiasmantoi.xlsx
+++ b/biology/Zoologie/Calumma_tjiasmantoi/Calumma_tjiasmantoi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma tjiasmantoi est une espèce de reptiles de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma tjiasmantoi est une espèce de reptiles de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Endémique de Madagascar, ce caméléon s’observe dans la région de Vatovavy-Fitovinany, à l’est de Madagascar.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est ovipare.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) David Prötzel, Mark D. Scherz, Fanomezana M. Ratsoavina, Miguel Vences et Frank Glaw, « Untangling the trees: Revision of the Calumma nasutum
 complex (Squamata: Chamaeleonidae) », Senckenberg Gesellschaft für Naturforschung,‎ 4 février 2020 (DOI 10.26049/VZ70-1-2020-3, lire en ligne  [PDF])
